--- a/outputs-HGR-r202/test-f__Akkermansiaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Akkermansiaceae_split_pruned.xlsx
@@ -133,7 +133,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>28724.416059566604</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -144,7 +144,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>96498.875125477236</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -155,7 +155,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>96484.654994095006</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -166,7 +166,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>81949.788452993496</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -177,7 +177,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>48389.937403419724</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -188,7 +188,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>104549.86787078655</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -199,7 +199,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>102228.83713563389</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -210,7 +210,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>81280.101526164945</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -221,7 +221,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>82870.820477338653</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -232,7 +232,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>87521.314502545225</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -243,7 +243,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>87480.365440534282</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -254,7 +254,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>121875.69746683838</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -265,7 +265,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>50698.799158333859</v>
       </c>
       <c r="C14">
         <v>1</v>
